--- a/Matlab files/Linden/Linden dimensions.xlsx
+++ b/Matlab files/Linden/Linden dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyubo\Desktop\Master final thesis\Masters-Final-Thesis\Matlab files\Linden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F6CB12-3D25-4794-837E-C81C99BDB862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330DCC2-4E1F-4800-A349-E3BEB296BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,6 +750,10 @@
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="16"/>
+      <c r="K5" t="str">
+        <f>_xlfn.TEXTJOIN(";",TRUE,F3:F37)</f>
+        <v>42.81;45.07;43.7;43.59;44.03;41.21;34.75;34.76;33.97;35.39;35.58;34.68;35.43;34.6;36.25;35.17;33.23;34.28;35.77;29.29;33.86;28.43;31.35;33.57;33.81;34.87;38.03;34.59;36.25;35.66;33.15;34.53;34.54;33.18;36.75</v>
+      </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C6">
